--- a/biology/Botanique/Forêt_d'Abernethy/Forêt_d'Abernethy.xlsx
+++ b/biology/Botanique/Forêt_d'Abernethy/Forêt_d'Abernethy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Abernethy</t>
+          <t>Forêt_d'Abernethy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt d'Abernethy est une trace toujours persistante de la forêt calédonienne qui couvrait autrefois l'Écosse située près d'Aviemore, en Badenoch and Strathspey, dans le council area de Highland. C'est une réserve de la RSPB, située à proximité du Loch Garten Osprey Centre, également géré par la RSPB.
